--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,26 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>周别</t>
+  </si>
   <si>
     <t>日期</t>
   </si>
   <si>
-    <t>周别</t>
-  </si>
-  <si>
     <t>商户名称</t>
   </si>
   <si>
     <t>实施人员</t>
   </si>
   <si>
-    <t>问题反馈</t>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>问题原因</t>
   </si>
   <si>
     <t>解决方法</t>
   </si>
   <si>
+    <t>2018.1.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>沽涷泰州店</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -42,15 +49,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2018.1.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>打印机打二维码是乱码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>荣大打印机无法解决</t>
+    <t>打印机不兼容，其他打印机都正常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣大打印机无法解决打印乱码，只能取消二维码后打印正常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（丰富路店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映外卖减免金额不对</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户说明通过综合营业数据的渠道进行筛选查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接了支付宝口碑，导致堂食有减免金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.12</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -148,16 +174,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -167,14 +190,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,100 +515,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="70.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>周别</t>
   </si>
@@ -78,6 +78,25 @@
   </si>
   <si>
     <t>2018.1.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青森（常州江南环球港店）</t>
+  </si>
+  <si>
+    <t>2018.1.21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反结账结账时提示所支付金额和账单应收金额不符，结账失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结账科目被更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增加一个类似的结账方式解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -518,14 +537,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
     <col min="5" max="6" width="70.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="71.25" style="3" customWidth="1"/>
@@ -601,8 +620,27 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>周别</t>
   </si>
@@ -92,11 +92,174 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>结账科目被更改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>新增加一个类似的结账方式解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘老大串串火锅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映外卖实收金额是0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台关闭了外卖结账科目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台开启外卖结账科目即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京百鹅汇餐饮管理有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付通道原因和网络原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（南京油坊桥店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到爱农进件失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映前台综合营业报表中入会办卡报表不对</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台会员里进行调账</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户说明通过前台卡操作的退款解决此类问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈总部商户中心朱芳已解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算实名认证一星期一直还在认证中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映支付宝在线支付后后台结算没有,也没有支付凭证</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过新报表中心的账单订单核对表找总部徐凯查询，但是没查询到，未解决，跟商户说明遇到类似问题一定要有支付凭证</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结账科目可能被更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个手机号是否可以注册三个公众号会员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.20</t>
+  </si>
+  <si>
+    <t>两个天堂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户希望一个手机号可以在同一个集团不同的品牌的三个公众号里分别注册会员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户中心2.0才能实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号会员是否可以设置单个品牌使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户希望其中一个公众号会员只能在单个品牌使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值送积分规则，积分是否可以兑换菜品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户希望系统可以直接用积分兑换菜品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值可以送积分，积分要在线上兑换菜品劵，菜品劵可以线上线下核销</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从其他系统切换到哗啦啦系统线下实体卡是否可以继续使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以，导入会员通过实体卡外置卡号消费使用，导入情况要具体分析实体卡类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供实体卡会员卡信息，提前导入，实体卡通过线下消费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已注册会员的用户是否可以绑定实体卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下门店可以绑定，不可以在公众号中进行操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体卡销售顾客支付现金如何管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台和后台有会员交易报表可以查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信会员有余额绑定实体卡（也有余额）金额是否可以相加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可以，可以两者余额相加后提前导入系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端是否可以绑定实体卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号不可以绑定，未解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信充值的金额汇总可以按照门店查询吗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在新报表中心会员储值汇总表中查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他系统的会员卡在哗啦啦系统对接问题</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,13 +350,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +432,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -547,7 +756,7 @@
     <col min="3" max="3" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
     <col min="5" max="6" width="70.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.75" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25">
@@ -619,57 +828,340 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" s="12" customFormat="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15"/>
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A18"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>周别</t>
   </si>
@@ -31,16 +31,9 @@
     <t>问题描述</t>
   </si>
   <si>
-    <t>问题原因</t>
-  </si>
-  <si>
     <t>解决方法</t>
   </si>
   <si>
-    <t>2018.1.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>沽涷泰州店</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -53,10 +46,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>打印机不兼容，其他打印机都正常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>荣大打印机无法解决打印乱码，只能取消二维码后打印正常</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -73,21 +62,9 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>对接了支付宝口碑，导致堂食有减免金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小青森（常州江南环球港店）</t>
   </si>
   <si>
-    <t>2018.1.21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>反结账结账时提示所支付金额和账单应收金额不符，结账失败</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -96,10 +73,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2018.1.15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>刘老大串串火锅</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -108,42 +81,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>后台关闭了外卖结账科目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>在后台开启外卖结账科目即可</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2018.1.19</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>南京百鹅汇餐饮管理有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>支付通道原因和网络原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>怒烤烤串（南京油坊桥店）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>到爱农进件失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>商户反映前台综合营业报表中入会办卡报表不对</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在后台会员里进行调账</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>跟商户说明通过前台卡操作的退款解决此类问题</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -164,102 +117,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>结账科目可能被更改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个手机号是否可以注册三个公众号会员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.20</t>
+    <t>有点烫欧尚店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0SAAS在线支付后接单里面不显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反结账时点撤销在线支付，钱会原路返回，暂时只有这个方法解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉水秀天地店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0SAAS菜品点打折后不能删，也不能退</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续点打折，然后点恢复原价即可删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>两个天堂</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商户希望一个手机号可以在同一个集团不同的品牌的三个公众号里分别注册会员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户中心2.0才能实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号会员是否可以设置单个品牌使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户希望其中一个公众号会员只能在单个品牌使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值送积分规则，积分是否可以兑换菜品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户希望系统可以直接用积分兑换菜品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值可以送积分，积分要在线上兑换菜品劵，菜品劵可以线上线下核销</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从其他系统切换到哗啦啦系统线下实体卡是否可以继续使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以，导入会员通过实体卡外置卡号消费使用，导入情况要具体分析实体卡类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供实体卡会员卡信息，提前导入，实体卡通过线下消费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号已注册会员的用户是否可以绑定实体卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下门店可以绑定，不可以在公众号中进行操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体卡销售顾客支付现金如何管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台和后台有会员交易报表可以查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信会员有余额绑定实体卡（也有余额）金额是否可以相加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可以，可以两者余额相加后提前导入系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机端是否可以绑定实体卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号不可以绑定，未解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信充值的金额汇总可以按照门店查询吗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在新报表中心会员储值汇总表中查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他系统的会员卡在哗啦啦系统对接问题</t>
+    <t>安装2.0SAAS后会报错</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>先装安装包，然后打开选择服务端，会提示服务失败，然后重启等5分钟，把升级包放在根目录下升级，如果不报错就升级成功，成功后服务启动要3分钟，然后注册登陆，如果登陆在报错，然后在重启后等5分钟在打开客户端即可成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0SAAS自带自定义打印模版</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用在saas.ini里面添加自定义打印字段</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -267,6 +165,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -279,6 +180,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,6 +189,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -295,12 +198,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -393,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,9 +326,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,6 +335,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -755,11 +663,11 @@
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="70.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="110.75" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -778,389 +686,233 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="12">
+        <v>43105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1">
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1">
+      <c r="B3" s="12">
+        <v>43112</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12">
+        <v>43115</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12">
+        <v>43115</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12">
+        <v>43119</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12">
+        <v>43119</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12">
+        <v>43121</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43126</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12">
+        <v>43126</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12">
+        <v>43127</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12">
+        <v>43127</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="12" customFormat="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="12"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A18"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="8925"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>周别</t>
   </si>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>有点烫欧尚店</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0SAAS在线支付后接单里面不显示</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -158,6 +154,34 @@
   </si>
   <si>
     <t>不用在saas.ini里面添加自定义打印字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫金鸡湖欧尚店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点烫金鸡湖欧尚店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0SAAS扫码点餐和美团外卖接单里偶尔不显示，系统BUG导致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品研发已发版解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务反映报表统计不全</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部月初对账量过多，报表中心数据有延迟，2月2日已恢复</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +362,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,8 +374,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -728,7 +755,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
-      <c r="A4" s="13">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="12">
@@ -748,7 +775,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="12">
         <v>43115</v>
       </c>
@@ -766,7 +793,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="12">
         <v>43119</v>
       </c>
@@ -784,7 +811,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="12">
         <v>43119</v>
       </c>
@@ -802,7 +829,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12">
         <v>43121</v>
       </c>
@@ -820,85 +847,116 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="12">
         <v>43126</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="12">
         <v>43126</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="12">
         <v>43127</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="12">
         <v>43127</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="12"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12">
+        <v>43132</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="5"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
+        <v>43133</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="5"/>
@@ -909,10 +967,14 @@
     <row r="17" spans="2:2">
       <c r="B17" s="5"/>
     </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="8925"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>周别</t>
   </si>
@@ -182,6 +182,26 @@
   </si>
   <si>
     <t>总部月初对账量过多，报表中心数据有延迟，2月2日已恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉厦门机场店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反映更新结账科目提示获取基本档信息失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS云端服务器不在线，远程调DNS IP改成114.114.114.114后解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映2月5日和2月7日销售的部分菜品没有自动出库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看后确实有部分菜品没有自动出库，是2月5日-2月7日报表延迟导致，把2月5日和2月7日手动出库后库存正常</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +385,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,8 +397,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +781,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="12">
@@ -775,7 +801,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12">
         <v>43115</v>
       </c>
@@ -793,7 +819,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="12">
         <v>43119</v>
       </c>
@@ -811,7 +837,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12">
         <v>43119</v>
       </c>
@@ -829,7 +855,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="12">
         <v>43121</v>
       </c>
@@ -847,7 +873,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
       <c r="B9" s="12">
@@ -867,7 +893,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="12">
         <v>43126</v>
       </c>
@@ -885,7 +911,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="12">
         <v>43127</v>
       </c>
@@ -903,7 +929,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="12">
         <v>43127</v>
       </c>
@@ -921,7 +947,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>5</v>
       </c>
       <c r="B13" s="12">
@@ -941,8 +967,8 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14">
         <v>43133</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -959,10 +985,42 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="5"/>
+      <c r="A15" s="18">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43139</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="5"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="14">
+        <v>43142</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5"/>
@@ -971,10 +1029,11 @@
       <c r="B18" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>周别</t>
   </si>
@@ -202,6 +202,38 @@
   </si>
   <si>
     <t>查看后确实有部分菜品没有自动出库，是2月5日-2月7日报表延迟导致，把2月5日和2月7日手动出库后库存正常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（天长店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映点餐快速结账报错，在点快速结账后账单里不显示菜品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS版本BUG，升级新版即可解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映综合营业数据里的会员交易汇总不显示数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品BUG，已发版解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（慈溪银泰店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映系统点单打印机出乱码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台商户中心打印机设置端口上添加shouyin(win-0-10)解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1022,18 +1057,72 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14">
+        <v>43178</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14">
+        <v>43181</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14">
+        <v>43182</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>周别</t>
   </si>
@@ -203,6 +203,45 @@
   <si>
     <t>查看后确实有部分菜品没有自动出库，是2月5日-2月7日报表延迟导致，把2月5日和2月7日手动出库后库存正常</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭得堡（天长店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映点餐快速结账报错，在点快速结账后账单里不显示菜品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS版本BUG，升级新版即可解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映综合营业数据里的会员交易汇总不显示数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品BUG，已发版解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（慈溪银泰店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映系统点单打印机出乱码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台商户中心打印机设置端口上添加shouyin(win-0-10)解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映点餐界面渠道默认显示美团外卖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS版本BUG，升级新版即可解决</t>
   </si>
 </sst>
 </file>
@@ -358,9 +397,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,6 +437,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,15 +743,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
@@ -721,7 +760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -741,299 +780,370 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>43105</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6" s="10" customFormat="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>43112</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1">
-      <c r="A4" s="15">
+    <row r="4" spans="1:6" s="10" customFormat="1">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>43115</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12">
+    <row r="5" spans="1:6" s="10" customFormat="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11">
         <v>43115</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12">
+    <row r="6" spans="1:6" s="10" customFormat="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11">
         <v>43119</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12">
+    <row r="7" spans="1:6" s="10" customFormat="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11">
         <v>43119</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="12">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11">
         <v>43121</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>43126</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11">
         <v>43126</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12">
+      <c r="A11" s="15"/>
+      <c r="B11" s="11">
         <v>43127</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="11">
         <v>43127</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>43132</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13">
         <v>43133</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>43139</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="19"/>
-      <c r="B16" s="14">
+      <c r="A16" s="18"/>
+      <c r="B16" s="13">
         <v>43142</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13">
+        <v>43178</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="19"/>
+      <c r="B18" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13">
+        <v>43182</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13">
+        <v>43189</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>周别</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>SAAS版本BUG，升级新版即可解决</t>
+  </si>
+  <si>
+    <t>无锡六府</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映饿了么官方外卖的流水跟系统上的流水不一样</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水统计的方法不一样，饿了么外卖配送费不计入流水，具体流水以饿了么官方为主</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1137,6 +1149,26 @@
         <v>58</v>
       </c>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="13">
+        <v>43191</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:A8"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>周别</t>
   </si>
@@ -248,11 +248,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商户反映饿了么官方外卖的流水跟系统上的流水不一样</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水统计的方法不一样，饿了么外卖配送费不计入流水，具体流水以饿了么官方为主</t>
+    <t>流水统计的方法不一样，饿了么外卖配送费不计入流水，在后台商户中心综合参数设置里关闭饿了么统计配送费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映美团官方外卖的实收跟系统上的实收不一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映饿了么官方外卖的流水跟系统上的流水不一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团菜品分成和平台抽成跟SAAS计算不一样，研发月底推动，发版时间待定</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +763,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1150,11 +1158,11 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6">
-        <v>14</v>
+      <c r="A21" s="17">
+        <v>15</v>
       </c>
       <c r="B21" s="13">
-        <v>43191</v>
+        <v>43201</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>59</v>
@@ -1163,14 +1171,33 @@
         <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18"/>
+      <c r="B22" s="13">
+        <v>43201</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="F22" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>周别</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>美团菜品分成和平台抽成跟SAAS计算不一样，研发月底推动，发版时间待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡六府</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映饿了么退单后SAAS上不能作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈研发调用数据库账单作废，研发近期发版解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -444,6 +456,12 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,12 +469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -763,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -840,7 +852,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="11">
@@ -860,7 +872,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="11">
         <v>43115</v>
       </c>
@@ -878,7 +890,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="11">
         <v>43119</v>
       </c>
@@ -896,7 +908,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="11">
         <v>43119</v>
       </c>
@@ -914,7 +926,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11">
         <v>43121</v>
       </c>
@@ -932,7 +944,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
       <c r="B9" s="11">
@@ -952,7 +964,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="11">
         <v>43126</v>
       </c>
@@ -970,7 +982,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="11">
         <v>43127</v>
       </c>
@@ -988,7 +1000,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="11">
         <v>43127</v>
       </c>
@@ -1006,7 +1018,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
       <c r="B13" s="11">
@@ -1026,7 +1038,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="13">
         <v>43133</v>
       </c>
@@ -1044,7 +1056,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="17">
+      <c r="A15" s="14">
         <v>6</v>
       </c>
       <c r="B15" s="13">
@@ -1064,7 +1076,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="13">
         <v>43142</v>
       </c>
@@ -1082,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>12</v>
       </c>
       <c r="B17" s="13">
@@ -1120,7 +1132,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="13">
         <v>43182</v>
       </c>
@@ -1158,7 +1170,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="17">
+      <c r="A21" s="14">
         <v>15</v>
       </c>
       <c r="B21" s="13">
@@ -1178,7 +1190,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="13">
         <v>43201</v>
       </c>
@@ -1193,6 +1205,26 @@
       </c>
       <c r="F22" s="9" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>周别</t>
   </si>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商户反映饿了么退单后SAAS上不能作废</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>反馈研发调用数据库账单作废，研发近期发版解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -280,11 +276,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商户反映美团官方外卖的单数和SAAS上单数不一致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>发现是顾客有退单，SAAS上没有作废账单导致，点击作废即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映1.0SAAS美团官方外卖的单数和SAAS上单数不一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映2.0SAAS饿了么退单后SAAS上不能作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映2.0SAAS美团官方外卖的单数比SAAS上单数多</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现是中午服务器影响导致系统漏单，已让商户补录外卖订单解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -468,19 +480,19 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -787,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -864,7 +876,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="11">
@@ -884,7 +896,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="11">
         <v>43115</v>
       </c>
@@ -902,7 +914,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="11">
         <v>43119</v>
       </c>
@@ -920,7 +932,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="11">
         <v>43119</v>
       </c>
@@ -938,7 +950,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="11">
         <v>43121</v>
       </c>
@@ -956,7 +968,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
       <c r="B9" s="11">
@@ -976,7 +988,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="11">
         <v>43126</v>
       </c>
@@ -994,7 +1006,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="11">
         <v>43127</v>
       </c>
@@ -1012,7 +1024,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="11">
         <v>43127</v>
       </c>
@@ -1030,7 +1042,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
       <c r="B13" s="11">
@@ -1050,7 +1062,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="13">
         <v>43133</v>
       </c>
@@ -1068,7 +1080,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>6</v>
       </c>
       <c r="B15" s="13">
@@ -1088,7 +1100,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="13">
         <v>43142</v>
       </c>
@@ -1106,7 +1118,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>12</v>
       </c>
       <c r="B17" s="13">
@@ -1144,7 +1156,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="13">
         <v>43182</v>
       </c>
@@ -1182,7 +1194,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>15</v>
       </c>
       <c r="B21" s="13">
@@ -1202,7 +1214,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="13">
         <v>43201</v>
       </c>
@@ -1220,7 +1232,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>16</v>
       </c>
       <c r="B23" s="13">
@@ -1233,19 +1245,19 @@
         <v>7</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="13">
         <v>43210</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>7</v>
@@ -1254,7 +1266,36 @@
         <v>68</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="E25" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13">
+        <v>43226</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>周别</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>发现是中午服务器影响导致系统漏单，已让商户补录外卖订单解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州平江万达广场店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映菜品优惠劵在后台显示，在前台会员买单不能使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看后是后台有两个相同的菜品优惠劵导致重复不显示，在后台失效前一个优惠劵即可正常显示</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1298,6 +1310,50 @@
         <v>72</v>
       </c>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6">
+        <v>20</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6">
+        <v>21</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6">
+        <v>22</v>
+      </c>
+      <c r="B30" s="13">
+        <v>43253</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A23:A24"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>周别</t>
   </si>
@@ -309,6 +309,38 @@
   </si>
   <si>
     <t>查看后是后台有两个相同的菜品优惠劵导致重复不显示，在后台失效前一个优惠劵即可正常显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰南京河西金鹰店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州丽丰中心店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映菜品优惠劵在后台显示，在前台会员买单11点前不能使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看后是后台设置的时候没有勾选早餐的时间段，勾选后即可正常显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映2.0SAAS扫码点餐支付宝付款后前台不自动清台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0SAAS重启服务后正常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映2.0SAAS扫码点餐支付后不能进行反结账操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现是2.0SAAS逻辑计算方式不一样，反馈产品，研发近期发版解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -1354,8 +1395,62 @@
         <v>75</v>
       </c>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="20">
+        <v>43260</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="19"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="17"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A4:A8"/>

--- a/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-黄纯伟.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>周别</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>发现是2.0SAAS逻辑计算方式不一样，反馈产品，研发近期发版解决</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟方塔东街店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户反映1.0SAAS来外卖后小票机只出通知单，标签不出单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看后是升级新版本后外卖单独走外卖结账单，在打印模版设置里重新读取下外卖结账单默认值即可正常出单</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -524,32 +536,32 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -929,7 +941,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="10" customFormat="1">
-      <c r="A4" s="14">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="11">
@@ -949,7 +961,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="10" customFormat="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="11">
         <v>43115</v>
       </c>
@@ -967,7 +979,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1">
-      <c r="A6" s="18"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="11">
         <v>43119</v>
       </c>
@@ -985,7 +997,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="11">
         <v>43119</v>
       </c>
@@ -1003,7 +1015,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="15"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11">
         <v>43121</v>
       </c>
@@ -1021,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
       <c r="B9" s="11">
@@ -1041,7 +1053,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="11">
         <v>43126</v>
       </c>
@@ -1059,7 +1071,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="11">
         <v>43127</v>
       </c>
@@ -1077,7 +1089,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11">
         <v>43127</v>
       </c>
@@ -1095,7 +1107,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="A13" s="20">
         <v>5</v>
       </c>
       <c r="B13" s="11">
@@ -1115,7 +1127,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="13">
         <v>43133</v>
       </c>
@@ -1133,7 +1145,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>6</v>
       </c>
       <c r="B15" s="13">
@@ -1153,7 +1165,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="13">
         <v>43142</v>
       </c>
@@ -1171,7 +1183,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>12</v>
       </c>
       <c r="B17" s="13">
@@ -1191,7 +1203,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="19"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="13">
         <v>43181</v>
       </c>
@@ -1209,7 +1221,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="13">
         <v>43182</v>
       </c>
@@ -1247,7 +1259,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>15</v>
       </c>
       <c r="B21" s="13">
@@ -1267,7 +1279,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="13">
         <v>43201</v>
       </c>
@@ -1285,7 +1297,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14">
+      <c r="A23" s="20">
         <v>16</v>
       </c>
       <c r="B23" s="13">
@@ -1305,7 +1317,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="13">
         <v>43210</v>
       </c>
@@ -1396,10 +1408,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>23</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="17">
         <v>43260</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -1416,8 +1428,8 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="8" t="s">
         <v>76</v>
       </c>
@@ -1432,8 +1444,8 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
@@ -1445,6 +1457,26 @@
       </c>
       <c r="F33" s="9" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6">
+        <v>24</v>
+      </c>
+      <c r="B34" s="13">
+        <v>43265</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
